--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.49403</v>
+        <v>0.026182</v>
       </c>
       <c r="H2">
-        <v>1.48209</v>
+        <v>0.078546</v>
       </c>
       <c r="I2">
-        <v>0.2841280960317652</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="J2">
-        <v>0.2841280960317651</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.220104333333334</v>
+        <v>12.28101533333333</v>
       </c>
       <c r="N2">
-        <v>18.660313</v>
+        <v>36.843046</v>
       </c>
       <c r="O2">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="P2">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="Q2">
-        <v>3.072918143796667</v>
+        <v>0.3215415434573334</v>
       </c>
       <c r="R2">
-        <v>27.65626329417</v>
+        <v>2.893873891116</v>
       </c>
       <c r="S2">
-        <v>0.2622978454761539</v>
+        <v>0.01976772009172569</v>
       </c>
       <c r="T2">
-        <v>0.2622978454761538</v>
+        <v>0.01976772009172569</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.49403</v>
+        <v>0.026182</v>
       </c>
       <c r="H3">
-        <v>1.48209</v>
+        <v>0.078546</v>
       </c>
       <c r="I3">
-        <v>0.2841280960317652</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="J3">
-        <v>0.2841280960317651</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.09168666666666668</v>
+        <v>0.09168666666666665</v>
       </c>
       <c r="N3">
         <v>0.27506</v>
       </c>
       <c r="O3">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004844</v>
       </c>
       <c r="P3">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004845</v>
       </c>
       <c r="Q3">
-        <v>0.04529596393333334</v>
+        <v>0.002400540306666667</v>
       </c>
       <c r="R3">
-        <v>0.4076636754</v>
+        <v>0.02160486276</v>
       </c>
       <c r="S3">
-        <v>0.003866368446052908</v>
+        <v>0.0001475803354703644</v>
       </c>
       <c r="T3">
-        <v>0.003866368446052907</v>
+        <v>0.0001475803354703644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.49403</v>
+        <v>0.026182</v>
       </c>
       <c r="H4">
-        <v>1.48209</v>
+        <v>0.078546</v>
       </c>
       <c r="I4">
-        <v>0.2841280960317652</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="J4">
-        <v>0.2841280960317651</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4259936666666667</v>
+        <v>0.4259936666666666</v>
       </c>
       <c r="N4">
         <v>1.277981</v>
       </c>
       <c r="O4">
-        <v>0.06322458905137661</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="P4">
-        <v>0.06322458905137662</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="Q4">
-        <v>0.2104536511433333</v>
+        <v>0.01115336618066667</v>
       </c>
       <c r="R4">
-        <v>1.89408286029</v>
+        <v>0.100380295626</v>
       </c>
       <c r="S4">
-        <v>0.01796388210955843</v>
+        <v>0.0006856862673771243</v>
       </c>
       <c r="T4">
-        <v>0.01796388210955843</v>
+        <v>0.0006856862673771242</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.519535</v>
       </c>
       <c r="I5">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934437</v>
       </c>
       <c r="J5">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934434</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.220104333333334</v>
+        <v>12.28101533333333</v>
       </c>
       <c r="N5">
-        <v>18.660313</v>
+        <v>36.843046</v>
       </c>
       <c r="O5">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="P5">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="Q5">
-        <v>7.297291634939446</v>
+        <v>14.40782110040111</v>
       </c>
       <c r="R5">
-        <v>65.67562471445501</v>
+        <v>129.67038990361</v>
       </c>
       <c r="S5">
-        <v>0.6228815035375147</v>
+        <v>0.8857635364376517</v>
       </c>
       <c r="T5">
-        <v>0.6228815035375147</v>
+        <v>0.8857635364376515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.519535</v>
       </c>
       <c r="I6">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934437</v>
       </c>
       <c r="J6">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934434</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.09168666666666668</v>
+        <v>0.09168666666666665</v>
       </c>
       <c r="N6">
         <v>0.27506</v>
       </c>
       <c r="O6">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004844</v>
       </c>
       <c r="P6">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004845</v>
       </c>
       <c r="Q6">
         <v>0.1075648107888889</v>
       </c>
       <c r="R6">
-        <v>0.9680832971000002</v>
+        <v>0.9680832971</v>
       </c>
       <c r="S6">
-        <v>0.009181506567603061</v>
+        <v>0.006612865785650308</v>
       </c>
       <c r="T6">
-        <v>0.009181506567603061</v>
+        <v>0.006612865785650307</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.519535</v>
       </c>
       <c r="I7">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934437</v>
       </c>
       <c r="J7">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934434</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4259936666666667</v>
+        <v>0.4259936666666666</v>
       </c>
       <c r="N7">
         <v>1.277981</v>
       </c>
       <c r="O7">
-        <v>0.06322458905137661</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="P7">
-        <v>0.06322458905137662</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="Q7">
-        <v>0.4997665398705556</v>
+        <v>0.4997665398705555</v>
       </c>
       <c r="R7">
-        <v>4.497898858835001</v>
+        <v>4.497898858835</v>
       </c>
       <c r="S7">
-        <v>0.04265902328499936</v>
+        <v>0.03072463037014166</v>
       </c>
       <c r="T7">
-        <v>0.04265902328499938</v>
+        <v>0.03072463037014166</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.214649</v>
       </c>
       <c r="I8">
-        <v>0.04114987057811764</v>
+        <v>0.05629798071198328</v>
       </c>
       <c r="J8">
-        <v>0.04114987057811763</v>
+        <v>0.05629798071198327</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.220104333333334</v>
+        <v>12.28101533333333</v>
       </c>
       <c r="N8">
-        <v>18.660313</v>
+        <v>36.843046</v>
       </c>
       <c r="O8">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="P8">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="Q8">
-        <v>0.4450463916818889</v>
+        <v>0.8787025534282222</v>
       </c>
       <c r="R8">
-        <v>4.005417525137</v>
+        <v>7.908322980854001</v>
       </c>
       <c r="S8">
-        <v>0.03798822624375776</v>
+        <v>0.05402084574604471</v>
       </c>
       <c r="T8">
-        <v>0.03798822624375776</v>
+        <v>0.0540208457460447</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.214649</v>
       </c>
       <c r="I9">
-        <v>0.04114987057811764</v>
+        <v>0.05629798071198328</v>
       </c>
       <c r="J9">
-        <v>0.04114987057811763</v>
+        <v>0.05629798071198327</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -986,28 +986,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09168666666666668</v>
+        <v>0.09168666666666665</v>
       </c>
       <c r="N9">
         <v>0.27506</v>
       </c>
       <c r="O9">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004844</v>
       </c>
       <c r="P9">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004845</v>
       </c>
       <c r="Q9">
-        <v>0.006560150437777778</v>
+        <v>0.006560150437777777</v>
       </c>
       <c r="R9">
-        <v>0.05904135394</v>
+        <v>0.05904135393999999</v>
       </c>
       <c r="S9">
-        <v>0.0005599606775410472</v>
+        <v>0.0004033047058841729</v>
       </c>
       <c r="T9">
-        <v>0.0005599606775410471</v>
+        <v>0.0004033047058841729</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.214649</v>
       </c>
       <c r="I10">
-        <v>0.04114987057811764</v>
+        <v>0.05629798071198328</v>
       </c>
       <c r="J10">
-        <v>0.04114987057811763</v>
+        <v>0.05629798071198327</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4259936666666667</v>
+        <v>0.4259936666666666</v>
       </c>
       <c r="N10">
         <v>1.277981</v>
       </c>
       <c r="O10">
-        <v>0.06322458905137661</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="P10">
-        <v>0.06322458905137662</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="Q10">
         <v>0.03047970485211111</v>
@@ -1066,10 +1066,10 @@
         <v>0.274317343669</v>
       </c>
       <c r="S10">
-        <v>0.002601683656818821</v>
+        <v>0.001873830260054393</v>
       </c>
       <c r="T10">
-        <v>0.002601683656818821</v>
+        <v>0.001873830260054392</v>
       </c>
     </row>
   </sheetData>
